--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2467450.486110211</v>
+        <v>2461098.743569079</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8155557.356877866</v>
+        <v>8154967.377487446</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>69.41325765719525</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>239.0389597222828</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -716,7 +716,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -786,13 +786,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>102.429039277474</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>124.314429790571</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>72.55567497641745</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.35655363557529</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>293.9100809018137</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>26.72650364479675</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -975,10 +975,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>67.68718531703409</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1029,10 +1029,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>97.69872321707214</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>217.1461264278013</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>345.6942161372769</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098796</v>
       </c>
       <c r="G11" t="n">
-        <v>216.3088016801542</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>-1.84741111297626e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1534,7 +1534,7 @@
         <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507267</v>
       </c>
       <c r="F13" t="n">
         <v>61.76140096484033</v>
@@ -1585,7 +1585,7 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530662</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.56354418212861</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>87.52601544627325</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1667,13 +1667,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386982</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665139</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799142</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190362</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697372</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412916</v>
+        <v>278.6711586412921</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135895</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.5937764228795</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277522</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059277</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541626</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879321</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658107</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.198109700689</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730202</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880354</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908595</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092568</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380479</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357205</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596419</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253623</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708162</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636914</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978635</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249333</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117993</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325494</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.379549679262</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593835</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277186</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555344</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689346</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587577</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303125</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026099</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453498</v>
+        <v>20.92391191189552</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443511</v>
+        <v>48.81858568179564</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622527</v>
+        <v>105.2357625896132</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431831</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769525</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548311</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897094</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046343</v>
+        <v>67.32610467782396</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074584</v>
+        <v>52.47323292810637</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258556</v>
+        <v>38.0469481399461</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546467</v>
+        <v>37.97339019282521</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523194</v>
+        <v>39.72284161259248</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762408</v>
+        <v>50.54167953498461</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419612</v>
+        <v>37.89393170155665</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536805</v>
+        <v>15.73364728272858</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982397</v>
+        <v>6.632145647184501</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535129</v>
+        <v>84.75808915271182</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.3320274868839</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008197</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215698</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682824</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449588</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665145</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697378</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412927</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875607</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277573</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059328</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541632</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879326</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880405</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908646</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092619</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038053</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357257</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459647</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253674</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708674</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369191</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.001891997864</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249339</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117998</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593886</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840512</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>292.776907011867</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252673</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>106.258190970743</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150903</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589426</v>
       </c>
       <c r="I41" t="n">
-        <v>40.4869062682279</v>
+        <v>40.48690626822817</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812802</v>
+        <v>68.38158003812829</v>
       </c>
       <c r="T41" t="n">
-        <v>65.90707907704058</v>
+        <v>124.7987569459458</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995157</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332851</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111637</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460421</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183732</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415635</v>
+        <v>86.88909903415662</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443902</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627875</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915786</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892513</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131726</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788931</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906124</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351715</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090445</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432166</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702864</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571523</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779025</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246151</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012914</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840512</v>
       </c>
       <c r="C44" t="n">
-        <v>55.20216454274333</v>
+        <v>292.776907011867</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>109.9667971102757</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643892</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150903</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866452</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.4869062682279</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812802</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>124.7987569459458</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995157</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332851</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>270.8222052111637</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460421</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183732</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415635</v>
+        <v>86.88909903415662</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443902</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627875</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915786</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892513</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131726</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788931</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906124</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351715</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090445</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432166</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702864</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571523</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779025</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246151</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012914</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>848.2981400551616</v>
+        <v>999.0496848552165</v>
       </c>
       <c r="C2" t="n">
-        <v>848.2981400551616</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>848.2981400551616</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>848.2981400551616</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>835.4441056255434</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2813501135466</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>138.4138119171996</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>497.3961679446614</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>990.7164596631902</v>
       </c>
       <c r="M2" t="n">
-        <v>1065.680985183616</v>
+        <v>990.7164596631902</v>
       </c>
       <c r="N2" t="n">
-        <v>1591.503874579472</v>
+        <v>1491.88324265864</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579472</v>
+        <v>1491.88324265864</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710994</v>
+        <v>1840.070734790162</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851942</v>
+        <v>1986.923381216632</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851942</v>
+        <v>1820.409826157683</v>
       </c>
       <c r="T2" t="n">
-        <v>1901.036324411359</v>
+        <v>1596.909223717099</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.283594845957</v>
+        <v>1341.156494151698</v>
       </c>
       <c r="V2" t="n">
-        <v>1645.283594845957</v>
+        <v>999.0496848552165</v>
       </c>
       <c r="W2" t="n">
-        <v>1645.283594845957</v>
+        <v>999.0496848552165</v>
       </c>
       <c r="X2" t="n">
-        <v>1645.283594845957</v>
+        <v>999.0496848552165</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.792885766559</v>
+        <v>999.0496848552165</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512725</v>
+        <v>89.88557988671062</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703884</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992653</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>845.7959704975785</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>845.7959704975785</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N3" t="n">
-        <v>968.030183989673</v>
+        <v>1639.512960007562</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580654</v>
+        <v>1639.512960007562</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297052</v>
+        <v>1790.55120337622</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.999251829175</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649875</v>
+        <v>1897.535575791322</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848784</v>
+        <v>1720.551763990231</v>
       </c>
       <c r="U3" t="n">
-        <v>1663.135263747197</v>
+        <v>1510.488620668872</v>
       </c>
       <c r="V3" t="n">
-        <v>1440.595262118264</v>
+        <v>1287.94861903994</v>
       </c>
       <c r="W3" t="n">
-        <v>1210.478016251551</v>
+        <v>1057.831373173226</v>
       </c>
       <c r="X3" t="n">
-        <v>1021.170938601563</v>
+        <v>868.5242955232382</v>
       </c>
       <c r="Y3" t="n">
-        <v>841.8567216770698</v>
+        <v>689.2100785987453</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.9584158994155</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="C4" t="n">
-        <v>677.9584158994155</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="D4" t="n">
-        <v>522.3253028019303</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="E4" t="n">
-        <v>366.7664906611328</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="F4" t="n">
-        <v>209.4405558741058</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="G4" t="n">
-        <v>209.4405558741058</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="H4" t="n">
-        <v>53.96200483559974</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823638</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="V4" t="n">
-        <v>677.9584158994155</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="W4" t="n">
-        <v>677.9584158994155</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="X4" t="n">
-        <v>677.9584158994155</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.9584158994155</v>
+        <v>298.9949051721633</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>872.5479325190579</v>
+        <v>359.3535813976249</v>
       </c>
       <c r="C5" t="n">
-        <v>872.5479325190579</v>
+        <v>62.47471179983316</v>
       </c>
       <c r="D5" t="n">
-        <v>872.5479325190579</v>
+        <v>62.47471179983316</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>62.47471179983316</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>49.62067737021498</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="K5" t="n">
-        <v>187.140511445867</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>680.4608031643958</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>680.4608031643958</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>1206.283692560251</v>
+        <v>1393.967756640063</v>
       </c>
       <c r="O5" t="n">
-        <v>1646.32329345258</v>
+        <v>1834.007357532391</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710994</v>
+        <v>1840.070734790162</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137464</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078515</v>
+        <v>1858.402739872161</v>
       </c>
       <c r="T5" t="n">
-        <v>1696.529855637931</v>
+        <v>1858.402739872161</v>
       </c>
       <c r="U5" t="n">
-        <v>1696.529855637931</v>
+        <v>1858.402739872161</v>
       </c>
       <c r="V5" t="n">
-        <v>1696.529855637931</v>
+        <v>1516.295930575679</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.529855637931</v>
+        <v>1145.296895543967</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.533387309854</v>
+        <v>755.8442904770237</v>
       </c>
       <c r="Y5" t="n">
-        <v>1273.042678230455</v>
+        <v>359.3535813976249</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>629.4844181182727</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C6" t="n">
-        <v>629.4844181182727</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512725</v>
+        <v>89.88557988671062</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703884</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>526.056824435352</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>1051.879713831208</v>
+        <v>861.4042549562985</v>
       </c>
       <c r="N6" t="n">
-        <v>1577.702603227063</v>
+        <v>1118.128143219263</v>
       </c>
       <c r="O6" t="n">
-        <v>2094.222885818044</v>
+        <v>1619.294926214713</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.91629493111</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851942</v>
+        <v>2000.999251829175</v>
       </c>
       <c r="S6" t="n">
-        <v>1989.606249751811</v>
+        <v>1866.068574729044</v>
       </c>
       <c r="T6" t="n">
-        <v>1812.622437950719</v>
+        <v>1689.084762927952</v>
       </c>
       <c r="U6" t="n">
-        <v>1602.559294629361</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="V6" t="n">
-        <v>1380.019293000428</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1149.902047133715</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X6" t="n">
-        <v>960.5949694837268</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>781.2807525592341</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>521.7821556168968</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="C7" t="n">
-        <v>521.7821556168968</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="D7" t="n">
-        <v>521.7821556168968</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="E7" t="n">
-        <v>366.2233434760993</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755449</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703884</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703884</v>
+        <v>70.87659607252026</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862221</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823638</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T7" t="n">
-        <v>521.7821556168968</v>
+        <v>777.9278461072804</v>
       </c>
       <c r="U7" t="n">
-        <v>521.7821556168968</v>
+        <v>492.4890543491813</v>
       </c>
       <c r="V7" t="n">
-        <v>521.7821556168968</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="W7" t="n">
-        <v>521.7821556168968</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="X7" t="n">
-        <v>521.7821556168968</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.7821556168968</v>
+        <v>226.5097091700055</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.3701640835627</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>877.3701640835627</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.541695780699</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1674.355618874358</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1277.86490979496</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>854.2900019614187</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>854.2900019614187</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>854.2900019614187</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>854.2900019614187</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>854.2900019614187</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>854.2900019614187</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>854.2900019614187</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>854.2900019614187</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1480.983092530629</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1182.748272320748</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1182.748272320748</v>
+        <v>731.435776546391</v>
       </c>
       <c r="E11" t="n">
-        <v>875.1054287244805</v>
+        <v>423.7929329501239</v>
       </c>
       <c r="F11" t="n">
-        <v>553.1516715416466</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.823590280621</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2905.823590280621</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2658.657462271328</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2382.599108526804</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.087184747049</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1786.537156954838</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082776</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5218,31 +5218,31 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404581</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329741</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852105</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592136</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1580.711427684576</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1282.476607474693</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5312,13 +5312,13 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
         <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468836</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
         <v>1625.725108676625</v>
@@ -5358,22 +5358,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,58 +5410,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669550998</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082773</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979805</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852094</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553808</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592126</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.05948741418</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599519</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498596</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975489</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099355</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803434</v>
+        <v>261.1858216803474</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924653</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411573</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840158</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443168</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>691.2836731261136</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1319.055322752795</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188557</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.403597936955</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218786</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634899</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588717</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072603</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462882</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,43 +5917,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862283</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162807</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532858</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476275</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341233</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918762</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116186</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.955836619419</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330054</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983973</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974495</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829235</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>174.7633905351325</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>174.7633905351325</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6206,58 +6206,58 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612378</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1795.153563656959</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2416.016209023994</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645896</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,28 +6297,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879676</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746015</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232838</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718128</v>
@@ -6458,40 +6458,40 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134134</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755553</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377455</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.58288023855</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>591.6304904949648</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
-        <v>1219.402140121646</v>
+        <v>1133.990636856185</v>
       </c>
       <c r="N30" t="n">
-        <v>1875.180111332205</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414154</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879675</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746014</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781095</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200823</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144932</v>
+        <v>890.2201666674325</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423749</v>
+        <v>590.5275805474753</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855435</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267679</v>
+        <v>87.68547930209908</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322591</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>680.665263959721</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.98645572283</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2247.797739360292</v>
+        <v>2252.184354569789</v>
       </c>
       <c r="O32" t="n">
-        <v>2687.837340252621</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3144.515340024528</v>
+        <v>3065.032496333755</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152274</v>
+        <v>3249.878056474704</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231443</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491229</v>
+        <v>3278.199034522558</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.90028443204</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216703</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.444450270287</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588639</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079627</v>
+        <v>2282.396514871761</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142427</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>665.2236955010861</v>
+        <v>600.6073572313144</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590215</v>
+        <v>341.6872565554773</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229146</v>
+        <v>288.6839909715315</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233332</v>
+        <v>250.2527302241112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804396</v>
+        <v>211.8957704333787</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913165</v>
+        <v>171.7716879964166</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886659</v>
+        <v>120.7194864459271</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806372</v>
+        <v>82.44278775748602</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304548</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929874</v>
+        <v>233.4810487454319</v>
       </c>
       <c r="L34" t="n">
-        <v>422.9958160071727</v>
+        <v>397.6086886192317</v>
       </c>
       <c r="M34" t="n">
-        <v>717.7779019858224</v>
+        <v>627.5238173231608</v>
       </c>
       <c r="N34" t="n">
-        <v>929.6006869231892</v>
+        <v>810.7134513543699</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605283</v>
+        <v>1088.287753884377</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381861</v>
+        <v>1323.033455149254</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392298</v>
+        <v>1326.455651519305</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422779</v>
+        <v>1319.756514501947</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003232</v>
+        <v>1234.142283034561</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.62508355286</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448257</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279032</v>
+        <v>798.6106513157148</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569847</v>
+        <v>632.4821015969574</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378717</v>
+        <v>515.6036317300054</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524189</v>
+        <v>409.6934228967137</v>
       </c>
     </row>
     <row r="35">
@@ -6917,70 +6917,70 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924244</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>346.0196676966397</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>346.0196676966397</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>973.7913173233209</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885607</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369582</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218812</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.565146063492</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588733</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407271</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462938</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445284</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862365</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162815</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532866</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476283</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341241</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191883</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161922</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194248</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330107</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698402</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974537</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7205,19 +7205,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7257,10 +7257,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1557.973630753167</v>
+        <v>1340.175609875973</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753167</v>
+        <v>1044.441360369036</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959968</v>
+        <v>756.4414835758371</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666459</v>
+        <v>649.1099775447833</v>
       </c>
       <c r="F41" t="n">
-        <v>645.378294586757</v>
+        <v>329.6567910648941</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648937</v>
+        <v>329.6567910648941</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215177</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2970.311274988434</v>
+        <v>2910.824731686509</v>
       </c>
       <c r="U41" t="n">
-        <v>2970.311274988434</v>
+        <v>2752.513254111241</v>
       </c>
       <c r="V41" t="n">
-        <v>2725.645717682086</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2452.087934640506</v>
+        <v>2234.289913763313</v>
       </c>
       <c r="X41" t="n">
-        <v>2160.076581563696</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1861.027124474431</v>
+        <v>1643.229103597237</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344879</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906101</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832578</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325933</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356992</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252777</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690465</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822074</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676786</v>
       </c>
       <c r="L43" t="n">
-        <v>505.198973302239</v>
+        <v>564.8145793170077</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160326</v>
+        <v>786.9927227160389</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822777</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940015</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792123</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237703</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860413</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033095</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191462</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423496</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234453</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557638</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288799</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356562</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1613.733392917554</v>
+        <v>1409.247912944789</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.973630753167</v>
+        <v>1113.513663437853</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959968</v>
+        <v>1002.436090599191</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666462</v>
+        <v>697.2938177058686</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867572</v>
+        <v>377.8406312259793</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648936</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804893</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2507.847696804893</v>
+        <v>2303.362216832129</v>
       </c>
       <c r="X44" t="n">
-        <v>2215.836343728083</v>
+        <v>2011.350863755319</v>
       </c>
       <c r="Y44" t="n">
-        <v>1916.786886638818</v>
+        <v>1712.301406666053</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>862.5399502876207</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1490.311599914302</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344879</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906101</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832578</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325933</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356992</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252777</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690465</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822074</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676786</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170077</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308022</v>
+        <v>786.9927227160389</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822777</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940015</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792123</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237703</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860413</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033095</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191462</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423496</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234453</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557638</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288799</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356562</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>216.5843692742424</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,10 +7985,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>176.227906134857</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507696</v>
+        <v>655.3475650705617</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820894</v>
       </c>
       <c r="N3" t="n">
-        <v>208.8410153714338</v>
+        <v>591.6011865869442</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>239.6472470098776</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8225,13 +8225,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507696</v>
+        <v>655.3475650705617</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>446.632834370636</v>
+        <v>156.4260707336227</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,22 +8295,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622974</v>
+        <v>598.6161957820894</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671522</v>
+        <v>344.6891717056461</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216665</v>
       </c>
       <c r="P6" t="n">
-        <v>117.7036082878984</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5450406822918</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,22 +8529,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>279.5693555729968</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,13 +9006,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,22 +9240,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0989755892052</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9483,22 +9483,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>288.3536975034276</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.2265410010273</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,25 +9951,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>115.098975589205</v>
       </c>
       <c r="N27" t="n">
-        <v>108.8653421701423</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>290.5921503773102</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276326</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,10 +10431,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>663.2434089132777</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10589,7 +10589,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987045</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10662,10 +10662,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>262.1075997502998</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
@@ -10680,10 +10680,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,13 +10905,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>306.543171528089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3398360504045</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000176</v>
       </c>
       <c r="G11" t="n">
-        <v>98.73105180240617</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414356</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>257.9349795978378</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>200.0694275749092</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-4.411958798300475e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -25628,19 +25628,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>195.8326591936462</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>312.5642884866452</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>58.89167786890499</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>237.5747424691235</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.1530809149916</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589426</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822817</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812829</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>714013.4936823671</v>
+        <v>713712.719875487</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>714013.4936823671</v>
+        <v>713712.719875487</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673861.1714567856</v>
+        <v>673861.1714567858</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716199.7875562479</v>
+        <v>716199.7875562484</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676743.1004467808</v>
+        <v>676743.1004467804</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676743.1004467808</v>
+        <v>676743.1004467806</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>559029.752089406</v>
+      </c>
+      <c r="C2" t="n">
         <v>559029.7520894059</v>
       </c>
-      <c r="C2" t="n">
-        <v>559029.7520894058</v>
-      </c>
       <c r="D2" t="n">
-        <v>559029.752089406</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="E2" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180383</v>
       </c>
       <c r="F2" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180385</v>
       </c>
       <c r="G2" t="n">
-        <v>559029.7520894064</v>
+        <v>559029.7520894062</v>
       </c>
       <c r="H2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894069</v>
       </c>
       <c r="I2" t="n">
         <v>559029.7520894065</v>
       </c>
       <c r="J2" t="n">
-        <v>559029.7520894067</v>
+        <v>559029.7520894072</v>
       </c>
       <c r="K2" t="n">
-        <v>559029.7520894068</v>
+        <v>559029.7520894072</v>
       </c>
       <c r="L2" t="n">
-        <v>559029.7520894057</v>
+        <v>559029.7520894054</v>
       </c>
       <c r="M2" t="n">
-        <v>559029.7520894069</v>
+        <v>559029.7520894062</v>
       </c>
       <c r="N2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894062</v>
       </c>
       <c r="O2" t="n">
-        <v>527666.7443870093</v>
+        <v>527666.7443870094</v>
       </c>
       <c r="P2" t="n">
-        <v>527666.7443870093</v>
+        <v>527666.7443870096</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343508</v>
+        <v>169649.0058765496</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602644</v>
+        <v>26460.41160941843</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.48642728030655e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301437</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670107</v>
+        <v>46725.8033548126</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436852</v>
+        <v>43782.97194555693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015684</v>
+        <v>18983.55983015662</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066573</v>
+        <v>187720.9480760007</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066573</v>
+        <v>187720.9480760007</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26433,7 +26433,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074766</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074764</v>
@@ -26445,19 +26445,19 @@
         <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171984</v>
+        <v>135041.9482081437</v>
       </c>
       <c r="M4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074763</v>
       </c>
       <c r="N4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>111818.0002629859</v>
+        <v>111818.0002629857</v>
       </c>
       <c r="P4" t="n">
-        <v>111818.0002629859</v>
+        <v>111818.0002629857</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814952</v>
+        <v>64406.32768295288</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814952</v>
+        <v>64406.32768295288</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551969</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.67530588336</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.4077825507</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.4077825507</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133804.3460602482</v>
+        <v>137253.4704539028</v>
       </c>
       <c r="C6" t="n">
-        <v>311799.643194599</v>
+        <v>306902.4763304524</v>
       </c>
       <c r="D6" t="n">
-        <v>304928.1221089249</v>
+        <v>297191.8328855328</v>
       </c>
       <c r="E6" t="n">
-        <v>229667.3753074227</v>
+        <v>229558.8147533213</v>
       </c>
       <c r="F6" t="n">
-        <v>360120.3064451348</v>
+        <v>360011.7458910336</v>
       </c>
       <c r="G6" t="n">
         <v>337017.3218933959</v>
       </c>
       <c r="H6" t="n">
-        <v>366112.27776641</v>
+        <v>366112.2777664104</v>
       </c>
       <c r="I6" t="n">
-        <v>366112.2777664104</v>
+        <v>366112.2777664106</v>
       </c>
       <c r="J6" t="n">
-        <v>138026.634416661</v>
+        <v>144542.919571235</v>
       </c>
       <c r="K6" t="n">
-        <v>359872.5093636278</v>
+        <v>359872.5093636282</v>
       </c>
       <c r="L6" t="n">
-        <v>320978.1624310386</v>
+        <v>316929.3252205658</v>
       </c>
       <c r="M6" t="n">
-        <v>323381.0008320423</v>
+        <v>322329.3058208533</v>
       </c>
       <c r="N6" t="n">
-        <v>366112.27776641</v>
+        <v>366112.2777664101</v>
       </c>
       <c r="O6" t="n">
-        <v>341544.7765113158</v>
+        <v>341443.605518728</v>
       </c>
       <c r="P6" t="n">
-        <v>360528.3363414727</v>
+        <v>360427.1653488849</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,19 +26808,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880685</v>
+        <v>831.8776843078607</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014445</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26917,34 +26917,34 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126797</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-2.648244918117324e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087634</v>
+        <v>58.40725419351575</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165952</v>
+        <v>14.33013548902025</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769605</v>
+        <v>23.72944978769577</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630955</v>
+        <v>85.18305253651749</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.394203684354362e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559196</v>
+        <v>646.8007142757115</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455245</v>
+        <v>129.6883820257328</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126797</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630955</v>
+        <v>85.18305253651749</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.394203684354362e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>319.8304888249035</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>81.80326020689142</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>31.15233105165581</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>83.64808209757362</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>81.52110699009295</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>120.4069274737176</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>95.33366558028496</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,10 +27625,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>358.831575371477</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>61.10089238770037</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.2637886710725</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>16.2157348856469</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>39.86386287899683</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>29.13668869888822</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28989,13 +28989,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>128.2979821082725</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155847</v>
       </c>
     </row>
     <row r="23">
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29539,7 +29539,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901181</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539248</v>
+        <v>24.86974620213743</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.75804948161368</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539248</v>
+        <v>44.06419228855057</v>
       </c>
       <c r="N34" t="n">
-        <v>28.92237465268445</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,13 +30171,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.2979821082808</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
     </row>
     <row r="38">
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528452</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="L43" t="n">
-        <v>36.24905561692944</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561693657</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561693657</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561692961</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023165</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>98.90453133189632</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,10 +34705,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>26.50285453712972</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="N3" t="n">
-        <v>123.4689025172671</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>152.5638821905629</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34945,13 +34945,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>296.3313871297108</v>
+        <v>6.124623492697501</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129855</v>
+        <v>259.3170588514795</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327776</v>
       </c>
       <c r="P6" t="n">
-        <v>30.6202434685837</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>98.29687095180005</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>189.5090087160786</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35726,13 +35726,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>22.71185353989332</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>198.2933506465093</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453514</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>7.69798984183592</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>113.782083667694</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>584.9538525242067</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989308</v>
       </c>
       <c r="N27" t="n">
-        <v>23.49322931597565</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272228</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>200.531803520392</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>102.225266873466</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6972530800138</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>649.1725445714754</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605126</v>
+        <v>376.5742837087251</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.4707364926728</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.41684924923102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>570.8562868639658</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.95534635440524</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759448</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067168</v>
+        <v>232.2375037413425</v>
       </c>
       <c r="N34" t="n">
-        <v>213.9624090276432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910037</v>
+        <v>280.3780833636432</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645225</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640773</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682127</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>113.7820836676939</v>
       </c>
       <c r="K36" t="n">
-        <v>172.5106644169664</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832396</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835408</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>216.4828246711707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807285</v>
+        <v>66.39235199807257</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570416</v>
       </c>
       <c r="L43" t="n">
-        <v>202.0345504389494</v>
+        <v>262.2523342922516</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697285</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451905</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073105</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.5538756081898</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038413</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>371.2794891934863</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>66.39235199807257</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570416</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922516</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697285</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451905</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073105</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.5538756081898</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708209</v>
+        <v>99.92360348038413</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
